--- a/data/trans_camb/P36B08_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 26,89</t>
+          <t>11,42; 26,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,06; 38,48</t>
+          <t>25,31; 38,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 21,13</t>
+          <t>6,61; 21,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,52; 31,05</t>
+          <t>19,17; 31,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,55; 22,24</t>
+          <t>11,37; 21,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,77; 33,73</t>
+          <t>23,59; 34,01</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,93; 47,33</t>
+          <t>17,46; 47,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,38; 69,94</t>
+          <t>38,3; 69,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,7; 31,96</t>
+          <t>8,72; 31,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,33; 46,99</t>
+          <t>25,16; 48,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,38; 35,35</t>
+          <t>16,47; 35,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,16; 54,48</t>
+          <t>33,59; 54,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 17,18</t>
+          <t>4,31; 17,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 28,96</t>
+          <t>16,55; 28,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,33; 52,1</t>
+          <t>41,83; 52,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 15,49</t>
+          <t>3,65; 15,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,14; 26,0</t>
+          <t>15,33; 26,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,17; 40,23</t>
+          <t>30,88; 40,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 15,04</t>
+          <t>5,44; 14,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,71; 26,42</t>
+          <t>17,63; 25,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,66; 44,99</t>
+          <t>37,66; 44,9</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 41,2</t>
+          <t>8,98; 42,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,88; 69,49</t>
+          <t>33,94; 68,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,55; 126,14</t>
+          <t>84,41; 128,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 28,41</t>
+          <t>6,05; 28,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,83; 49,4</t>
+          <t>25,56; 49,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,52; 75,54</t>
+          <t>49,58; 76,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,37; 30,12</t>
+          <t>9,84; 28,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,69; 54,75</t>
+          <t>31,67; 52,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,59; 93,44</t>
+          <t>69,27; 92,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 13,52</t>
+          <t>0,34; 14,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 8,08</t>
+          <t>-7,36; 7,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,25; 25,07</t>
+          <t>12,36; 24,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 14,79</t>
+          <t>2,63; 14,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 6,86</t>
+          <t>-5,35; 7,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,38; 22,31</t>
+          <t>12,71; 22,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 12,79</t>
+          <t>3,69; 12,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 5,52</t>
+          <t>-4,27; 5,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,83; 22,0</t>
+          <t>14,31; 21,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 19,65</t>
+          <t>0,57; 20,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 11,84</t>
+          <t>-9,61; 10,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,63; 36,42</t>
+          <t>16,08; 35,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,33; 20,11</t>
+          <t>3,23; 19,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 9,32</t>
+          <t>-6,59; 10,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,43; 30,66</t>
+          <t>15,73; 31,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,75; 17,64</t>
+          <t>4,76; 17,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 7,6</t>
+          <t>-5,57; 7,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,54; 30,59</t>
+          <t>18,2; 30,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 13,05</t>
+          <t>0,83; 12,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 17,78</t>
+          <t>5,36; 18,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,92; 34,68</t>
+          <t>24,73; 34,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 10,5</t>
+          <t>-0,15; 10,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 14,5</t>
+          <t>3,88; 14,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,36; 24,64</t>
+          <t>16,35; 25,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 10,04</t>
+          <t>1,44; 9,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,04; 14,4</t>
+          <t>6,29; 14,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,69; 28,35</t>
+          <t>21,81; 28,51</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 20,47</t>
+          <t>0,95; 19,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,51; 27,2</t>
+          <t>7,43; 28,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,05; 54,47</t>
+          <t>33,87; 55,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,11; 13,97</t>
+          <t>-0,16; 14,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,05; 19,42</t>
+          <t>4,86; 20,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,18; 33,72</t>
+          <t>20,15; 34,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,57; 14,33</t>
+          <t>1,88; 13,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,01; 20,28</t>
+          <t>8,29; 21,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,55; 40,57</t>
+          <t>28,62; 40,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,91; 22,71</t>
+          <t>2,56; 22,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>30,99; 46,93</t>
+          <t>30,57; 46,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>41,81; 55,82</t>
+          <t>41,49; 56,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,45; 19,61</t>
+          <t>1,12; 19,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,86; 34,4</t>
+          <t>19,14; 34,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,95; 43,87</t>
+          <t>30,5; 44,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,24; 18,85</t>
+          <t>4,95; 18,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,21; 38,61</t>
+          <t>27,32; 38,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>37,62; 47,31</t>
+          <t>37,62; 47,41</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>6,74; 48,88</t>
+          <t>4,7; 49,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>54,14; 104,2</t>
+          <t>54,42; 105,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>72,16; 126,58</t>
+          <t>71,31; 128,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,29; 34,12</t>
+          <t>1,69; 35,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>25,39; 60,6</t>
+          <t>27,73; 60,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>43,45; 78,9</t>
+          <t>44,29; 79,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,58; 36,1</t>
+          <t>7,97; 34,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>44,92; 74,53</t>
+          <t>44,46; 72,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>61,05; 90,38</t>
+          <t>60,64; 90,8</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 15,59</t>
+          <t>-0,06; 16,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,68; -1,45</t>
+          <t>-19,21; -2,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>26,53; 38,37</t>
+          <t>26,43; 38,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,55; 14,02</t>
+          <t>-0,86; 13,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-23,62; -7,99</t>
+          <t>-24,76; -8,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,63; 27,33</t>
+          <t>16,1; 26,86</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,04; 12,66</t>
+          <t>2,3; 12,71</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-19,35; -7,92</t>
+          <t>-19,22; -7,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,84; 31,2</t>
+          <t>22,63; 30,91</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,44; 26,18</t>
+          <t>-0,05; 27,2</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,86; -2,38</t>
+          <t>-28,23; -4,01</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>38,24; 65,54</t>
+          <t>37,99; 66,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,84; 19,57</t>
+          <t>-1,03; 18,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,04; -11,52</t>
+          <t>-31,45; -11,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,67; 38,48</t>
+          <t>19,96; 37,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,74; 18,73</t>
+          <t>3,17; 18,94</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,43; -11,65</t>
+          <t>-26,21; -11,29</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>30,94; 46,8</t>
+          <t>30,48; 46,38</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 3,85</t>
+          <t>-6,57; 3,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-17,46; -6,54</t>
+          <t>-17,45; -6,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,46; 16,74</t>
+          <t>7,29; 16,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,56; 11,56</t>
+          <t>3,01; 11,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 1,79</t>
+          <t>-8,29; 1,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,89; 22,58</t>
+          <t>13,65; 22,46</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,28</t>
+          <t>-0,55; 6,2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -3,68</t>
+          <t>-11,13; -4,05</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,13; 18,81</t>
+          <t>12,26; 18,71</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 5,29</t>
+          <t>-8,41; 4,83</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,36; -8,92</t>
+          <t>-22,45; -9,26</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>9,6; 23,06</t>
+          <t>9,38; 23,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>3,5; 16,02</t>
+          <t>4,16; 16,68</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 2,48</t>
+          <t>-10,8; 2,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>17,92; 31,27</t>
+          <t>17,44; 30,95</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 8,58</t>
+          <t>-0,71; 8,47</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -5,02</t>
+          <t>-14,64; -5,54</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>15,61; 25,71</t>
+          <t>15,76; 25,21</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>6,21; 15,79</t>
+          <t>6,22; 15,89</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>9,92; 19,71</t>
+          <t>9,52; 19,55</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>32,1; 40,17</t>
+          <t>32,01; 39,67</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4,73; 13,58</t>
+          <t>4,31; 13,18</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,36; 9,48</t>
+          <t>0,28; 9,3</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>23,34; 30,05</t>
+          <t>23,52; 30,01</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>7,06; 13,44</t>
+          <t>6,58; 13,2</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>6,48; 13,01</t>
+          <t>6,8; 13,12</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>28,81; 33,99</t>
+          <t>28,82; 34,26</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>9,53; 27,09</t>
+          <t>9,58; 26,97</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>15,5; 33,63</t>
+          <t>14,75; 32,89</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>49,46; 69,42</t>
+          <t>48,86; 67,79</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>6,48; 19,93</t>
+          <t>5,95; 19,09</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,46; 13,82</t>
+          <t>0,38; 13,39</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>31,33; 44,26</t>
+          <t>31,64; 44,07</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>10,33; 21,11</t>
+          <t>9,65; 20,64</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>9,26; 20,11</t>
+          <t>9,91; 20,17</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>41,85; 52,72</t>
+          <t>41,88; 53,51</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>5,59; 10,2</t>
+          <t>5,63; 10,26</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>6,55; 11,3</t>
+          <t>6,86; 11,61</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>29,06; 32,9</t>
+          <t>29,22; 33,04</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>6,52; 10,67</t>
+          <t>6,24; 10,58</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,31</t>
+          <t>4,21; 8,45</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>22,81; 26,26</t>
+          <t>22,95; 26,45</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,74; 9,8</t>
+          <t>6,66; 9,65</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,29</t>
+          <t>6,16; 9,24</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>26,57; 29,11</t>
+          <t>26,62; 29,07</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>8,68; 16,46</t>
+          <t>8,68; 16,54</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>10,19; 18,28</t>
+          <t>10,6; 18,86</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>44,79; 53,34</t>
+          <t>44,97; 53,34</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>9,1; 15,32</t>
+          <t>8,67; 15,18</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,91</t>
+          <t>5,85; 12,09</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>31,42; 37,66</t>
+          <t>31,66; 38,02</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>9,9; 14,65</t>
+          <t>9,75; 14,56</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>9,06; 14,03</t>
+          <t>9,08; 13,94</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>38,85; 43,92</t>
+          <t>39,0; 43,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B08_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 26,48</t>
+          <t>10,39; 26,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,31; 38,9</t>
+          <t>25,18; 38,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 21,16</t>
+          <t>7,06; 21,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,17; 31,49</t>
+          <t>18,8; 30,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,37; 21,74</t>
+          <t>11,53; 21,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,59; 34,01</t>
+          <t>23,93; 33,35</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 47,68</t>
+          <t>16,03; 47,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,3; 69,97</t>
+          <t>37,66; 69,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 31,75</t>
+          <t>9,38; 32,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,16; 48,03</t>
+          <t>24,8; 46,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,47; 35,12</t>
+          <t>16,69; 34,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,59; 54,91</t>
+          <t>34,45; 54,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 17,62</t>
+          <t>4,22; 17,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 28,66</t>
+          <t>16,58; 28,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,83; 52,39</t>
+          <t>41,25; 52,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 15,81</t>
+          <t>3,81; 15,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,33; 26,34</t>
+          <t>15,06; 26,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,88; 40,7</t>
+          <t>30,9; 40,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 14,16</t>
+          <t>5,35; 14,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 25,84</t>
+          <t>17,85; 26,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,66; 44,9</t>
+          <t>37,81; 44,8</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,98; 42,54</t>
+          <t>8,29; 40,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,94; 68,46</t>
+          <t>33,42; 68,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,41; 128,76</t>
+          <t>83,17; 128,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 28,74</t>
+          <t>5,93; 28,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,56; 49,27</t>
+          <t>24,58; 49,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,58; 76,54</t>
+          <t>50,28; 75,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 28,33</t>
+          <t>10,06; 29,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,67; 52,18</t>
+          <t>32,8; 52,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,27; 92,49</t>
+          <t>69,5; 91,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 14,17</t>
+          <t>0,79; 13,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 7,49</t>
+          <t>-6,49; 7,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,36; 24,29</t>
+          <t>12,79; 24,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 14,02</t>
+          <t>2,86; 14,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 7,4</t>
+          <t>-5,24; 6,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,71; 22,75</t>
+          <t>12,49; 22,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 12,51</t>
+          <t>3,43; 12,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 5,59</t>
+          <t>-4,33; 5,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,31; 21,93</t>
+          <t>13,95; 22,06</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,57; 20,79</t>
+          <t>1,03; 19,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 10,94</t>
+          <t>-8,61; 10,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,08; 35,41</t>
+          <t>16,75; 35,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,23; 19,1</t>
+          <t>3,58; 19,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 10,05</t>
+          <t>-6,57; 9,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,73; 31,28</t>
+          <t>15,39; 31,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,76; 17,39</t>
+          <t>4,46; 17,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 7,66</t>
+          <t>-5,54; 7,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,2; 30,39</t>
+          <t>18,0; 30,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 12,67</t>
+          <t>1,24; 13,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,36; 18,57</t>
+          <t>5,09; 17,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,73; 34,97</t>
+          <t>24,68; 35,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 10,42</t>
+          <t>0,44; 10,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 14,91</t>
+          <t>3,59; 15,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,35; 25,08</t>
+          <t>16,12; 25,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 9,76</t>
+          <t>1,8; 9,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,29; 14,89</t>
+          <t>5,85; 14,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,81; 28,51</t>
+          <t>21,57; 28,36</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 19,26</t>
+          <t>1,61; 20,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,43; 28,97</t>
+          <t>7,14; 28,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,87; 55,16</t>
+          <t>33,79; 55,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 14,27</t>
+          <t>0,56; 14,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,86; 20,06</t>
+          <t>4,5; 20,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,15; 34,41</t>
+          <t>19,87; 34,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,88; 13,89</t>
+          <t>2,31; 13,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,29; 21,05</t>
+          <t>7,83; 20,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,62; 40,69</t>
+          <t>28,45; 40,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,56; 22,0</t>
+          <t>3,49; 22,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>30,57; 46,75</t>
+          <t>29,98; 46,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>41,49; 56,15</t>
+          <t>41,67; 55,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 19,88</t>
+          <t>1,09; 18,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,14; 34,13</t>
+          <t>19,21; 35,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,5; 44,3</t>
+          <t>30,01; 43,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,95; 18,33</t>
+          <t>5,03; 18,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,32; 38,66</t>
+          <t>26,57; 38,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>37,62; 47,41</t>
+          <t>37,39; 47,28</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4,7; 49,02</t>
+          <t>6,27; 51,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>54,42; 105,39</t>
+          <t>52,96; 107,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>71,31; 128,81</t>
+          <t>71,87; 124,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,69; 35,23</t>
+          <t>2,13; 33,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>27,73; 60,25</t>
+          <t>27,21; 62,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>44,29; 79,78</t>
+          <t>43,08; 78,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,97; 34,75</t>
+          <t>8,22; 34,88</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>44,46; 72,48</t>
+          <t>43,48; 72,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>60,64; 90,8</t>
+          <t>60,3; 90,2</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 16,45</t>
+          <t>-0,47; 15,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,21; -2,5</t>
+          <t>-18,38; -1,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>26,43; 38,98</t>
+          <t>26,84; 39,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 13,16</t>
+          <t>0,5; 13,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-24,76; -8,59</t>
+          <t>-23,98; -8,12</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,1; 26,86</t>
+          <t>16,61; 27,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,3; 12,71</t>
+          <t>2,34; 12,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -7,6</t>
+          <t>-19,16; -7,89</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,63; 30,91</t>
+          <t>22,87; 31,02</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 27,2</t>
+          <t>-0,82; 25,75</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,23; -4,01</t>
+          <t>-27,01; -2,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>37,99; 66,68</t>
+          <t>38,6; 66,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 18,07</t>
+          <t>0,62; 19,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-31,45; -11,91</t>
+          <t>-30,23; -10,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,96; 37,8</t>
+          <t>20,58; 38,37</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,17; 18,94</t>
+          <t>3,31; 19,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,21; -11,29</t>
+          <t>-26,31; -11,28</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>30,48; 46,38</t>
+          <t>30,91; 46,39</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 3,59</t>
+          <t>-6,42; 3,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -6,84</t>
+          <t>-17,65; -6,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,29; 16,95</t>
+          <t>7,96; 17,13</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,01; 11,87</t>
+          <t>2,74; 12,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 1,54</t>
+          <t>-8,45; 1,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,65; 22,46</t>
+          <t>13,54; 22,31</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,2</t>
+          <t>-0,54; 6,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-11,13; -4,05</t>
+          <t>-11,04; -3,58</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,26; 18,71</t>
+          <t>12,22; 18,99</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 4,83</t>
+          <t>-8,2; 4,63</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,45; -9,26</t>
+          <t>-22,46; -8,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>9,38; 23,44</t>
+          <t>10,41; 24,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4,16; 16,68</t>
+          <t>3,52; 16,56</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 2,05</t>
+          <t>-10,93; 2,68</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>17,44; 30,95</t>
+          <t>17,39; 31,0</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,47</t>
+          <t>-0,68; 8,72</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,64; -5,54</t>
+          <t>-14,42; -4,8</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>15,76; 25,21</t>
+          <t>15,96; 26,0</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>6,22; 15,89</t>
+          <t>5,98; 15,73</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>9,52; 19,55</t>
+          <t>9,93; 18,93</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>32,01; 39,67</t>
+          <t>32,14; 39,76</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4,31; 13,18</t>
+          <t>4,84; 13,12</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,28; 9,3</t>
+          <t>0,17; 9,15</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>23,52; 30,01</t>
+          <t>23,46; 30,62</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6,58; 13,2</t>
+          <t>6,75; 13,1</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>6,8; 13,12</t>
+          <t>6,23; 12,7</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>28,82; 34,26</t>
+          <t>28,72; 33,75</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>9,58; 26,97</t>
+          <t>9,24; 26,61</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>14,75; 32,89</t>
+          <t>15,27; 32,07</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>48,86; 67,79</t>
+          <t>49,15; 68,15</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5,95; 19,09</t>
+          <t>6,41; 18,85</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,38; 13,39</t>
+          <t>0,26; 13,37</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>31,64; 44,07</t>
+          <t>31,54; 45,23</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>9,65; 20,64</t>
+          <t>10,02; 20,31</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>9,91; 20,17</t>
+          <t>9,16; 19,66</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>41,88; 53,51</t>
+          <t>41,63; 52,47</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,26</t>
+          <t>5,5; 10,13</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,61</t>
+          <t>6,89; 11,68</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>29,22; 33,04</t>
+          <t>28,92; 32,94</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,58</t>
+          <t>6,31; 10,38</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,45</t>
+          <t>3,95; 8,23</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>22,95; 26,45</t>
+          <t>23,02; 26,33</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,65</t>
+          <t>6,61; 9,82</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>6,16; 9,24</t>
+          <t>6,0; 9,19</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>26,62; 29,07</t>
+          <t>26,65; 29,16</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>8,68; 16,54</t>
+          <t>8,57; 16,44</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>10,6; 18,86</t>
+          <t>10,57; 18,67</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>44,97; 53,34</t>
+          <t>44,52; 53,31</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,67; 15,18</t>
+          <t>8,67; 14,8</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>5,85; 12,09</t>
+          <t>5,5; 11,85</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>31,66; 38,02</t>
+          <t>31,72; 37,78</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,56</t>
+          <t>9,72; 14,82</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,94</t>
+          <t>8,85; 13,94</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>39,0; 43,91</t>
+          <t>39,13; 44,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B08_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,18</t>
+          <t>32,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,86</t>
+          <t>24,26</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,65</t>
+          <t>28,3</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 18,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,18; 38,65</t>
+          <t>24,92; 38,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 15,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,8; 30,85</t>
+          <t>17,58; 30,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 14,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,93; 33,35</t>
+          <t>23,47; 33,19</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>52,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>42,73%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 33,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,66; 69,67</t>
+          <t>37,94; 70,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 24,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,8; 46,45</t>
+          <t>23,17; 46,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,06; 22,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,45; 54,01</t>
+          <t>33,6; 53,16</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>47,13</t>
+          <t>47,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,58</t>
+          <t>35,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>41,3</t>
+          <t>41,36</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,25; 52,68</t>
+          <t>41,37; 52,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,9; 40,29</t>
+          <t>30,9; 40,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,81; 44,8</t>
+          <t>37,94; 44,86</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>103,48%</t>
+          <t>103,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,74%</t>
+          <t>61,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>79,95%</t>
+          <t>80,07%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,17; 128,79</t>
+          <t>83,44; 129,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,28; 75,61</t>
+          <t>50,12; 75,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,5; 91,8</t>
+          <t>69,53; 91,96</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,76</t>
+          <t>18,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,08</t>
+          <t>18,05</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 24,35</t>
+          <t>12,64; 24,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 22,73</t>
+          <t>12,55; 22,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,95; 22,06</t>
+          <t>13,88; 21,97</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>24,08%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,75; 35,67</t>
+          <t>16,61; 35,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,39; 31,47</t>
+          <t>15,56; 31,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,0; 30,99</t>
+          <t>17,92; 30,94</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,59</t>
+          <t>29,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,42</t>
+          <t>20,74</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,92</t>
+          <t>25,1</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 13,37</t>
+          <t>2,12; 16,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,68; 35,11</t>
+          <t>24,68; 35,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 10,44</t>
+          <t>1,95; 13,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,12; 25,23</t>
+          <t>16,5; 25,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,73</t>
+          <t>4,46; 13,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,57; 28,36</t>
+          <t>21,75; 28,48</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>34,28%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 20,43</t>
+          <t>2,97; 25,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,79; 55,48</t>
+          <t>33,78; 55,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,56; 14,22</t>
+          <t>2,4; 17,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,87; 34,57</t>
+          <t>20,25; 35,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,31; 13,84</t>
+          <t>5,93; 18,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,45; 40,55</t>
+          <t>28,73; 40,75</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>36,64</t>
+          <t>36,65</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>42,63</t>
+          <t>42,64</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>41,67; 55,08</t>
+          <t>41,68; 55,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,01; 43,62</t>
+          <t>29,99; 43,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>37,39; 47,28</t>
+          <t>37,4; 47,27</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>58,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>75,03%</t>
+          <t>75,05%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>71,87; 124,56</t>
+          <t>71,87; 124,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>43,08; 78,22</t>
+          <t>43,09; 78,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>60,3; 90,2</t>
+          <t>60,31; 90,21</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>32,31</t>
+          <t>32,32</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>21,5</t>
+          <t>21,52</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>26,84; 39,01</t>
+          <t>26,82; 38,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,61; 27,27</t>
+          <t>16,64; 27,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,87; 31,02</t>
+          <t>22,9; 31,03</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>50,08%</t>
+          <t>50,09%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>38,06%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>38,6; 66,57</t>
+          <t>38,56; 66,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,58; 38,37</t>
+          <t>20,62; 38,39</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>30,91; 46,39</t>
+          <t>30,87; 46,36</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>12,05</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>17,75</t>
+          <t>18,63</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>15,29</t>
+          <t>15,8</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,96; 17,13</t>
+          <t>7,49; 17,07</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,54; 22,31</t>
+          <t>14,44; 24,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,22; 18,99</t>
+          <t>12,59; 20,28</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>20,98%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>10,41; 24,14</t>
+          <t>9,86; 23,82</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>17,39; 31,0</t>
+          <t>18,66; 33,66</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>15,96; 26,0</t>
+          <t>16,38; 27,88</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>36,09</t>
+          <t>36,59</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>26,82</t>
+          <t>26,86</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>31,34</t>
+          <t>31,62</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>32,14; 39,76</t>
+          <t>32,83; 40,58</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>23,46; 30,62</t>
+          <t>23,55; 30,63</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>28,72; 33,75</t>
+          <t>29,04; 34,17</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>58,54%</t>
+          <t>59,35%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>37,74%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>47,11%</t>
+          <t>47,53%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>49,15; 68,15</t>
+          <t>50,24; 69,19</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>31,54; 45,23</t>
+          <t>31,47; 45,23</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>41,63; 52,47</t>
+          <t>42,18; 53,28</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>31,06</t>
+          <t>31,2</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>24,7</t>
+          <t>24,82</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>27,86</t>
+          <t>27,97</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>28,92; 32,94</t>
+          <t>29,06; 33,31</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>23,02; 26,33</t>
+          <t>23,11; 26,53</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>26,65; 29,16</t>
+          <t>26,75; 29,34</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>49,35%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>41,61%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>44,52; 53,31</t>
+          <t>44,58; 53,67</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>31,72; 37,78</t>
+          <t>31,88; 37,99</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>39,13; 44,07</t>
+          <t>39,27; 44,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B08_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 18,36</t>
+          <t>1,24; 17,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,39; 26,33</t>
+          <t>10,78; 26,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,92; 38,78</t>
+          <t>25,18; 38,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 15,97</t>
+          <t>-0,54; 15,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 21,48</t>
+          <t>6,66; 21,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,58; 30,67</t>
+          <t>17,15; 30,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 14,11</t>
+          <t>2,53; 13,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,53; 21,69</t>
+          <t>11,38; 22,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,47; 33,19</t>
+          <t>23,19; 33,04</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 33,35</t>
+          <t>1,97; 30,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,03; 47,09</t>
+          <t>15,99; 47,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,94; 70,17</t>
+          <t>38,51; 68,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 24,5</t>
+          <t>-0,67; 23,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 32,2</t>
+          <t>8,84; 32,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,17; 46,25</t>
+          <t>22,45; 47,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 22,54</t>
+          <t>3,63; 22,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 34,54</t>
+          <t>16,27; 35,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,6; 53,16</t>
+          <t>33,14; 52,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 17,33</t>
+          <t>4,15; 16,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 28,97</t>
+          <t>16,58; 29,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,37; 52,87</t>
+          <t>41,47; 51,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 15,94</t>
+          <t>3,79; 15,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,06; 26,69</t>
+          <t>15,38; 26,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,9; 40,28</t>
+          <t>30,63; 40,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 14,43</t>
+          <t>5,97; 14,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,85; 26,15</t>
+          <t>17,57; 26,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,94; 44,86</t>
+          <t>37,82; 45,13</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 40,73</t>
+          <t>8,33; 38,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,42; 68,69</t>
+          <t>33,71; 69,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,44; 129,25</t>
+          <t>82,12; 124,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 28,79</t>
+          <t>6,21; 29,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,58; 49,65</t>
+          <t>25,14; 49,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,12; 75,54</t>
+          <t>49,6; 74,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 29,38</t>
+          <t>10,89; 29,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,8; 52,94</t>
+          <t>32,9; 53,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,53; 91,96</t>
+          <t>69,46; 92,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 13,43</t>
+          <t>1,56; 14,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 7,41</t>
+          <t>-7,16; 7,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,64; 24,24</t>
+          <t>12,96; 25,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 14,13</t>
+          <t>2,76; 14,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 6,93</t>
+          <t>-5,98; 7,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,55; 22,74</t>
+          <t>11,95; 22,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 12,4</t>
+          <t>3,78; 12,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 5,18</t>
+          <t>-3,84; 5,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,88; 21,97</t>
+          <t>14,47; 21,94</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 19,53</t>
+          <t>2,11; 20,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 10,69</t>
+          <t>-9,21; 10,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,61; 35,53</t>
+          <t>16,75; 36,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 19,26</t>
+          <t>3,64; 19,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 9,32</t>
+          <t>-7,48; 9,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,56; 31,49</t>
+          <t>14,69; 30,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,46; 17,17</t>
+          <t>4,97; 17,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 7,2</t>
+          <t>-5,01; 6,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,92; 30,94</t>
+          <t>18,52; 30,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 16,24</t>
+          <t>3,16; 16,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,09; 17,89</t>
+          <t>5,34; 18,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,68; 35,08</t>
+          <t>24,61; 35,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 13,34</t>
+          <t>2,05; 13,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,59; 15,23</t>
+          <t>4,09; 14,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,5; 25,71</t>
+          <t>16,57; 25,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,46; 13,11</t>
+          <t>4,95; 13,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 14,36</t>
+          <t>6,48; 15,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,75; 28,48</t>
+          <t>21,64; 28,61</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,97; 25,16</t>
+          <t>4,39; 25,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,14; 28,23</t>
+          <t>7,4; 29,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,78; 55,44</t>
+          <t>33,35; 55,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,4; 17,95</t>
+          <t>2,61; 17,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,5; 20,84</t>
+          <t>5,04; 19,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,25; 35,25</t>
+          <t>20,35; 34,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,93; 18,42</t>
+          <t>6,53; 18,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,83; 20,31</t>
+          <t>8,62; 21,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,73; 40,75</t>
+          <t>28,34; 40,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,49; 22,82</t>
+          <t>3,36; 23,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>29,98; 46,74</t>
+          <t>30,49; 46,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>41,68; 55,09</t>
+          <t>41,9; 55,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,09; 18,83</t>
+          <t>1,49; 20,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,21; 35,14</t>
+          <t>18,86; 34,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,99; 43,64</t>
+          <t>30,35; 43,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,03; 18,5</t>
+          <t>4,73; 18,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>26,57; 38,12</t>
+          <t>26,97; 38,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>37,4; 47,27</t>
+          <t>36,95; 47,52</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>6,27; 51,67</t>
+          <t>5,73; 52,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>52,96; 107,07</t>
+          <t>53,03; 105,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>71,87; 124,57</t>
+          <t>72,36; 125,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,13; 33,19</t>
+          <t>2,24; 36,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>27,21; 62,12</t>
+          <t>27,49; 61,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>43,09; 78,23</t>
+          <t>44,05; 77,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,22; 34,88</t>
+          <t>7,52; 34,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>43,48; 72,99</t>
+          <t>43,85; 74,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>60,31; 90,21</t>
+          <t>59,42; 91,49</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 15,59</t>
+          <t>-0,04; 16,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -1,46</t>
+          <t>-18,32; -2,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>26,82; 38,98</t>
+          <t>26,66; 38,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,5; 13,68</t>
+          <t>-0,05; 13,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-23,98; -8,12</t>
+          <t>-23,87; -8,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,64; 27,27</t>
+          <t>16,3; 26,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,34; 12,91</t>
+          <t>1,69; 12,88</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-19,16; -7,89</t>
+          <t>-19,0; -7,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,9; 31,03</t>
+          <t>22,38; 30,74</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 25,75</t>
+          <t>0,24; 27,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,01; -2,43</t>
+          <t>-26,88; -3,69</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>38,56; 66,59</t>
+          <t>38,44; 66,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,62; 19,14</t>
+          <t>0,14; 18,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,23; -10,92</t>
+          <t>-30,28; -11,77</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,62; 38,39</t>
+          <t>20,06; 37,48</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,31; 19,08</t>
+          <t>2,34; 19,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,31; -11,28</t>
+          <t>-26,05; -10,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>30,87; 46,36</t>
+          <t>30,12; 46,08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 3,33</t>
+          <t>-6,44; 3,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-17,65; -6,74</t>
+          <t>-17,49; -7,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,49; 17,07</t>
+          <t>6,96; 17,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,74; 12,0</t>
+          <t>2,38; 11,85</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 1,95</t>
+          <t>-8,18; 2,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,44; 24,16</t>
+          <t>14,52; 24,51</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 6,47</t>
+          <t>-0,46; 6,32</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -3,58</t>
+          <t>-11,19; -3,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,59; 20,28</t>
+          <t>12,27; 19,98</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 4,63</t>
+          <t>-8,36; 4,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,46; -8,95</t>
+          <t>-22,53; -9,9</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>9,86; 23,82</t>
+          <t>8,9; 23,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>3,52; 16,56</t>
+          <t>3,07; 16,41</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 2,68</t>
+          <t>-10,5; 3,31</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>18,66; 33,66</t>
+          <t>18,64; 33,76</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 8,72</t>
+          <t>-0,56; 8,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -4,8</t>
+          <t>-14,61; -5,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>16,38; 27,88</t>
+          <t>15,91; 27,23</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>5,98; 15,73</t>
+          <t>6,31; 15,7</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>9,93; 18,93</t>
+          <t>10,53; 19,68</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>32,83; 40,58</t>
+          <t>32,9; 40,83</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4,84; 13,12</t>
+          <t>4,58; 13,68</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,17; 9,15</t>
+          <t>0,66; 9,85</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>23,55; 30,63</t>
+          <t>23,35; 29,98</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,1</t>
+          <t>6,8; 13,22</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>6,23; 12,7</t>
+          <t>6,66; 12,95</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>29,04; 34,17</t>
+          <t>28,84; 34,1</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>9,24; 26,61</t>
+          <t>9,73; 26,59</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>15,27; 32,07</t>
+          <t>16,38; 33,86</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>50,24; 69,19</t>
+          <t>50,31; 70,08</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>6,41; 18,85</t>
+          <t>6,23; 20,11</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,26; 13,37</t>
+          <t>0,95; 14,62</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>31,47; 45,23</t>
+          <t>31,4; 44,03</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>10,02; 20,31</t>
+          <t>9,89; 20,46</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>9,16; 19,66</t>
+          <t>9,61; 19,92</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>42,18; 53,28</t>
+          <t>41,74; 52,76</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,13</t>
+          <t>5,51; 10,39</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,68</t>
+          <t>6,75; 11,46</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>29,06; 33,31</t>
+          <t>29,27; 33,47</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,38</t>
+          <t>6,28; 10,47</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,23</t>
+          <t>4,14; 8,62</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>23,11; 26,53</t>
+          <t>23,16; 26,54</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,82</t>
+          <t>6,54; 9,71</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,19</t>
+          <t>6,09; 9,27</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>26,75; 29,34</t>
+          <t>26,63; 29,34</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>8,57; 16,44</t>
+          <t>8,47; 16,64</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,67</t>
+          <t>10,48; 18,57</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>44,58; 53,67</t>
+          <t>45,06; 54,21</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,67; 14,8</t>
+          <t>8,63; 14,91</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>5,5; 11,85</t>
+          <t>5,66; 12,32</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>31,88; 37,99</t>
+          <t>31,94; 38,08</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,82</t>
+          <t>9,71; 14,76</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,94</t>
+          <t>8,95; 14,0</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>39,27; 44,31</t>
+          <t>39,02; 44,35</t>
         </is>
       </c>
     </row>
